--- a/data/access_target.xlsx
+++ b/data/access_target.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winst\Nutstore\1\我的坚果云\XJIntern\PyCharmProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734579AB-1886-4663-B648-57847B516B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE12564E-1122-4849-90E6-28EA98AA5782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3072" yWindow="2604" windowWidth="17964" windowHeight="9528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="access_target" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="74">
   <si>
     <t>UPDATE</t>
   </si>
@@ -262,6 +262,30 @@
   </si>
   <si>
     <t>idx_constituent_CSI100.csv</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>factordatabase</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_first_report</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fv</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2d_event_first_report.csv</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>equity_incentive</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2d_equity_incentive.csv</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1214,10 +1238,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1838,6 +1862,64 @@
         <v>67</v>
       </c>
     </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/access_target.xlsx
+++ b/data/access_target.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winst\Nutstore\1\我的坚果云\XJIntern\PyCharmProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE12564E-1122-4849-90E6-28EA98AA5782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8E1378-92D1-4D64-AB47-618C65F8F61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="2604" windowWidth="17964" windowHeight="9528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="access_target" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="86">
   <si>
     <t>UPDATE</t>
   </si>
@@ -286,6 +286,52 @@
   </si>
   <si>
     <t>2d_equity_incentive.csv</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>open</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>stk_marketdata_open.csv</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B_DATE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>E_DATE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015-01-01</t>
+  </si>
+  <si>
+    <t>2015-01-01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014-01-01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-01-01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022-12-31</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010-01-01</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -879,8 +925,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1238,10 +1287,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1249,11 +1298,12 @@
     <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" customWidth="1"/>
+    <col min="6" max="7" width="12.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1269,20 +1319,26 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>56</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1298,20 +1354,26 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>58</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1327,20 +1389,26 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>58</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1356,20 +1424,26 @@
       <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>18</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>58</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1385,20 +1459,26 @@
       <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" t="s">
         <v>10</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>21</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>58</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1414,20 +1494,26 @@
       <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" t="s">
         <v>10</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>21</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>58</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1443,20 +1529,26 @@
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" t="s">
         <v>10</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>21</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>58</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1472,20 +1564,26 @@
       <c r="E8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" t="s">
         <v>10</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>21</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>58</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1501,20 +1599,26 @@
       <c r="E9" t="s">
         <v>9</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" t="s">
         <v>10</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
         <v>21</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
         <v>58</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1530,20 +1634,26 @@
       <c r="E10" t="s">
         <v>27</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" t="s">
         <v>10</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>28</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
         <v>58</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1559,20 +1669,26 @@
       <c r="E11" t="s">
         <v>9</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" t="s">
         <v>10</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>11</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
         <v>58</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1588,20 +1704,26 @@
       <c r="E12" t="s">
         <v>9</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" t="s">
         <v>10</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
         <v>58</v>
       </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1617,20 +1739,26 @@
       <c r="E13" t="s">
         <v>29</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" t="s">
         <v>30</v>
       </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s">
         <v>33</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J13" t="s">
         <v>58</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1646,20 +1774,26 @@
       <c r="E14" t="s">
         <v>29</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" t="s">
         <v>30</v>
       </c>
-      <c r="G14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" t="s">
         <v>58</v>
       </c>
-      <c r="I14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -1675,20 +1809,26 @@
       <c r="E15" t="s">
         <v>29</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" t="s">
         <v>30</v>
       </c>
-      <c r="G15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" t="s">
         <v>58</v>
       </c>
-      <c r="I15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -1704,20 +1844,26 @@
       <c r="E16" t="s">
         <v>29</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" t="s">
         <v>30</v>
       </c>
-      <c r="G16" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" t="s">
         <v>58</v>
       </c>
-      <c r="I16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -1728,25 +1874,31 @@
         <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="E17" t="s">
         <v>29</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" t="s">
         <v>30</v>
       </c>
-      <c r="G17" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" t="s">
-        <v>57</v>
-      </c>
       <c r="I17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="J17" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1762,20 +1914,26 @@
       <c r="E18" t="s">
         <v>29</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" t="s">
         <v>30</v>
       </c>
-      <c r="G18" t="s">
+      <c r="I18" t="s">
         <v>55</v>
       </c>
-      <c r="H18" t="s">
-        <v>59</v>
-      </c>
-      <c r="I18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -1791,20 +1949,26 @@
       <c r="E19" t="s">
         <v>29</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" t="s">
         <v>30</v>
       </c>
-      <c r="G19" t="s">
+      <c r="I19" t="s">
         <v>55</v>
       </c>
-      <c r="H19" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>59</v>
+      </c>
+      <c r="K19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -1820,20 +1984,26 @@
       <c r="E20" t="s">
         <v>29</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" t="s">
         <v>30</v>
       </c>
-      <c r="G20" t="s">
+      <c r="I20" t="s">
         <v>55</v>
       </c>
-      <c r="H20" t="s">
-        <v>61</v>
-      </c>
-      <c r="I20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>60</v>
+      </c>
+      <c r="K20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -1849,49 +2019,61 @@
       <c r="E21" t="s">
         <v>29</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" t="s">
         <v>30</v>
       </c>
-      <c r="G21" t="s">
+      <c r="I21" t="s">
         <v>55</v>
       </c>
-      <c r="H21" t="s">
-        <v>62</v>
-      </c>
-      <c r="I21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>61</v>
+      </c>
+      <c r="K21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E22" t="s">
         <v>29</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" t="s">
         <v>30</v>
       </c>
-      <c r="G22" t="s">
-        <v>70</v>
-      </c>
-      <c r="H22" t="s">
-        <v>58</v>
-      </c>
       <c r="I22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="J22" t="s">
+        <v>62</v>
+      </c>
+      <c r="K22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -1902,21 +2084,62 @@
         <v>68</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E23" t="s">
         <v>29</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" t="s">
         <v>30</v>
       </c>
-      <c r="G23" t="s">
+      <c r="I23" t="s">
         <v>70</v>
       </c>
-      <c r="H23" t="s">
+      <c r="J23" t="s">
         <v>58</v>
       </c>
-      <c r="I23" t="s">
+      <c r="K23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" t="s">
+        <v>70</v>
+      </c>
+      <c r="J24" t="s">
+        <v>58</v>
+      </c>
+      <c r="K24" t="s">
         <v>73</v>
       </c>
     </row>

--- a/data/access_target.xlsx
+++ b/data/access_target.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winst\Nutstore\1\我的坚果云\XJIntern\PyCharmProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8E1378-92D1-4D64-AB47-618C65F8F61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A8D046-94CE-4436-AC3B-7E7B6D7774BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="348" windowWidth="17964" windowHeight="9528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="access_target" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="90">
   <si>
     <t>UPDATE</t>
   </si>
@@ -58,9 +58,6 @@
     <t>mkt_freeshares</t>
   </si>
   <si>
-    <t>stk_west_eps_instnum</t>
-  </si>
-  <si>
     <t>west_instnum</t>
   </si>
   <si>
@@ -332,6 +329,25 @@
   </si>
   <si>
     <t>2010-01-01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>stk_west_instnum_180</t>
+  </si>
+  <si>
+    <t>2012-01-01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>west_instnum</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>stk_west_eps_instnum???</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2d_stk_west_instnum_180.csv</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1287,20 +1303,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A24"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="12.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.21875" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1320,10 +1336,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -1332,10 +1348,10 @@
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1349,28 +1365,28 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1381,31 +1397,31 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" t="s">
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1416,31 +1432,31 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1451,31 +1467,31 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s">
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1486,31 +1502,31 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s">
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1521,31 +1537,31 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s">
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1556,31 +1572,31 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s">
         <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1591,31 +1607,31 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s">
         <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1626,31 +1642,31 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
         <v>26</v>
       </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s">
         <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1670,10 +1686,10 @@
         <v>9</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s">
         <v>10</v>
@@ -1682,10 +1698,10 @@
         <v>11</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1699,28 +1715,28 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s">
         <v>10</v>
       </c>
       <c r="I12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1731,31 +1747,31 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
         <v>31</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" t="s">
         <v>32</v>
       </c>
-      <c r="E13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" t="s">
-        <v>33</v>
-      </c>
       <c r="J13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1766,31 +1782,31 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" t="s">
-        <v>30</v>
-      </c>
       <c r="I14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" t="s">
         <v>74</v>
-      </c>
-      <c r="J14" t="s">
-        <v>58</v>
-      </c>
-      <c r="K14" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1801,31 +1817,31 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" t="s">
         <v>34</v>
       </c>
-      <c r="E15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" t="s">
-        <v>35</v>
-      </c>
       <c r="J15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1836,31 +1852,31 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" t="s">
-        <v>30</v>
-      </c>
       <c r="I16" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" t="s">
         <v>52</v>
-      </c>
-      <c r="J16" t="s">
-        <v>58</v>
-      </c>
-      <c r="K16" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1871,31 +1887,31 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H17" t="s">
-        <v>30</v>
-      </c>
       <c r="I17" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" t="s">
         <v>50</v>
-      </c>
-      <c r="J17" t="s">
-        <v>58</v>
-      </c>
-      <c r="K17" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1906,31 +1922,31 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" t="s">
         <v>54</v>
       </c>
-      <c r="E18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I18" t="s">
-        <v>55</v>
-      </c>
       <c r="J18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1941,31 +1957,31 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" t="s">
         <v>54</v>
       </c>
-      <c r="E19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H19" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" t="s">
-        <v>55</v>
-      </c>
       <c r="J19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1976,31 +1992,31 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" t="s">
         <v>54</v>
       </c>
-      <c r="E20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H20" t="s">
-        <v>30</v>
-      </c>
-      <c r="I20" t="s">
-        <v>55</v>
-      </c>
       <c r="J20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2011,31 +2027,31 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" t="s">
         <v>54</v>
       </c>
-      <c r="E21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H21" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21" t="s">
-        <v>55</v>
-      </c>
       <c r="J21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -2046,31 +2062,31 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" t="s">
         <v>54</v>
       </c>
-      <c r="E22" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H22" t="s">
-        <v>30</v>
-      </c>
-      <c r="I22" t="s">
-        <v>55</v>
-      </c>
       <c r="J22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -2081,31 +2097,31 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" t="s">
         <v>68</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" t="s">
         <v>69</v>
       </c>
-      <c r="E23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H23" t="s">
-        <v>30</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
+        <v>57</v>
+      </c>
+      <c r="K23" t="s">
         <v>70</v>
-      </c>
-      <c r="J23" t="s">
-        <v>58</v>
-      </c>
-      <c r="K23" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -2116,31 +2132,66 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" t="s">
+        <v>69</v>
+      </c>
+      <c r="J24" t="s">
+        <v>57</v>
+      </c>
+      <c r="K24" t="s">
         <v>72</v>
       </c>
-      <c r="E24" t="s">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H25" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H24" t="s">
-        <v>30</v>
-      </c>
-      <c r="I24" t="s">
-        <v>70</v>
-      </c>
-      <c r="J24" t="s">
-        <v>58</v>
-      </c>
-      <c r="K24" t="s">
-        <v>73</v>
+      <c r="I25" t="s">
+        <v>87</v>
+      </c>
+      <c r="J25" t="s">
+        <v>57</v>
+      </c>
+      <c r="K25" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/data/access_target.xlsx
+++ b/data/access_target.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winst\Nutstore\1\我的坚果云\XJIntern\PyCharmProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A8D046-94CE-4436-AC3B-7E7B6D7774BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3213C15-A777-4380-AA82-A4AE088E4B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="348" windowWidth="17964" windowHeight="9528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="access_target" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
   <si>
     <t>UPDATE</t>
   </si>
@@ -348,6 +348,14 @@
   </si>
   <si>
     <t>2d_stk_west_instnum_180.csv</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>open*adjfactor AS openAdj</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>stk_marketdata_openAdj.csv</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1303,10 +1311,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1925,7 +1934,7 @@
         <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
         <v>28</v>
@@ -1934,19 +1943,19 @@
         <v>84</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H18" t="s">
         <v>29</v>
       </c>
       <c r="I18" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="J18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K18" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1978,10 +1987,10 @@
         <v>54</v>
       </c>
       <c r="J19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2013,10 +2022,10 @@
         <v>54</v>
       </c>
       <c r="J20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2048,10 +2057,10 @@
         <v>54</v>
       </c>
       <c r="J21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -2083,10 +2092,10 @@
         <v>54</v>
       </c>
       <c r="J22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -2094,34 +2103,34 @@
         <v>0</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="E23" t="s">
         <v>28</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s">
         <v>29</v>
       </c>
       <c r="I23" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J23" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K23" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -2135,16 +2144,16 @@
         <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E24" t="s">
         <v>28</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -2156,41 +2165,76 @@
         <v>57</v>
       </c>
       <c r="K24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E25" t="s">
         <v>28</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
       </c>
       <c r="I25" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="J25" t="s">
         <v>57</v>
       </c>
       <c r="K25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" t="s">
+        <v>87</v>
+      </c>
+      <c r="J26" t="s">
+        <v>57</v>
+      </c>
+      <c r="K26" t="s">
         <v>89</v>
       </c>
     </row>

--- a/data/access_target.xlsx
+++ b/data/access_target.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winst\Nutstore\1\我的坚果云\XJIntern\PyCharmProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3213C15-A777-4380-AA82-A4AE088E4B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2933BFCF-8DFD-452A-8FE1-5FE5C8DFC63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2184" yWindow="2256" windowWidth="17964" windowHeight="9528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="access_target" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="96">
   <si>
     <t>UPDATE</t>
   </si>
@@ -356,6 +356,22 @@
   </si>
   <si>
     <t>stk_marketdata_openAdj.csv</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>free_turn</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>turn</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2d_stk_marketdata_freeturn.csv</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2d_stk_marketdata_turn.csv</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1311,11 +1327,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2238,6 +2254,76 @@
         <v>89</v>
       </c>
     </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" t="s">
+        <v>92</v>
+      </c>
+      <c r="J27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" t="s">
+        <v>93</v>
+      </c>
+      <c r="J28" t="s">
+        <v>57</v>
+      </c>
+      <c r="K28" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/access_target.xlsx
+++ b/data/access_target.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winst\Nutstore\1\我的坚果云\XJIntern\PyCharmProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2933BFCF-8DFD-452A-8FE1-5FE5C8DFC63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148E5F11-5D6D-4A3D-A7DB-26B61A819FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2184" yWindow="2256" windowWidth="17964" windowHeight="9528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="access_target" sheetId="1" r:id="rId1"/>
@@ -332,46 +332,47 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>2012-01-01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>west_instnum</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>stk_west_eps_instnum???</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2d_stk_west_instnum_180.csv</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>open*adjfactor AS openAdj</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>stk_marketdata_openAdj.csv</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>free_turn</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>turn</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2d_stk_marketdata_freeturn.csv</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2d_stk_marketdata_turn.csv</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>stk_west_instnum_180</t>
-  </si>
-  <si>
-    <t>2012-01-01</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>west_instnum</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>stk_west_eps_instnum???</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>2d_stk_west_instnum_180.csv</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>open*adjfactor AS openAdj</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>stk_marketdata_openAdj.csv</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>free_turn</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>turn</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>2d_stk_marketdata_freeturn.csv</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>2d_stk_marketdata_turn.csv</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1331,17 +1332,21 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
+    <col min="4" max="4" width="24.77734375" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.21875" customWidth="1"/>
-    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="6" max="7" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1740,7 +1745,7 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -1965,13 +1970,13 @@
         <v>29</v>
       </c>
       <c r="I18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J18" t="s">
         <v>57</v>
       </c>
       <c r="K18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2230,13 +2235,13 @@
         <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="E26" t="s">
         <v>28</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>83</v>
@@ -2245,13 +2250,13 @@
         <v>29</v>
       </c>
       <c r="I26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J26" t="s">
         <v>57</v>
       </c>
       <c r="K26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2280,13 +2285,13 @@
         <v>29</v>
       </c>
       <c r="I27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J27" t="s">
         <v>57</v>
       </c>
       <c r="K27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2315,13 +2320,13 @@
         <v>29</v>
       </c>
       <c r="I28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J28" t="s">
         <v>57</v>
       </c>
       <c r="K28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/data/access_target.xlsx
+++ b/data/access_target.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winst\Nutstore\1\我的坚果云\XJIntern\PyCharmProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148E5F11-5D6D-4A3D-A7DB-26B61A819FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5849DC2-D131-4831-B0D4-641E99C97AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1331,8 +1331,8 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
